--- a/excel/over_traffic_202310.xlsx
+++ b/excel/over_traffic_202310.xlsx
@@ -645,7 +645,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>345</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2866</t>
+          <t>3211</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>343</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>820</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>359</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1211,17 +1211,17 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>945</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>484</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4458</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>558</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2041</t>
+          <t>9665</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>220</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>4878</t>
+          <t>5098</t>
         </is>
       </c>
     </row>
@@ -1515,17 +1515,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,385</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1,273</t>
+          <t>1,298</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>1,885</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1560,17 +1560,17 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>942</t>
+          <t>1,887</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>825</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1,217</t>
+          <t>5,675</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>758</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>11,103</t>
+          <t>20,317</t>
         </is>
       </c>
     </row>
